--- a/общая.xlsx
+++ b/общая.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="10005" windowHeight="10005" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="prefix-tense" sheetId="4" r:id="rId1"/>
@@ -3859,8 +3859,9 @@
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4201,10 +4202,9 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:marker val="1"/>
         <c:axId val="96368512"/>
         <c:axId val="96370048"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="96368512"/>
         <c:scaling>
@@ -4234,6 +4234,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -11052,7 +11053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -12473,7 +12474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
